--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A87A4A1-6FB5-422D-8814-EC1F738B3F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652BC447-1408-4F55-B931-FF1C1B3929FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.3304876614391597</v>
+        <v>0.22722043110768661</v>
       </c>
       <c r="C2" s="1">
-        <v>0.79275921258950499</v>
+        <v>0.82989265795706235</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.26356172712317771</v>
+        <v>0.19346937866961469</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,7 +463,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.1987098240271675</v>
+        <v>0.15376008888563711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.13534970384342929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.12009305545069469</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/principalComponentAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652BC447-1408-4F55-B931-FF1C1B3929FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B8B85-C1DA-4936-83F2-03C04F0D5F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
